--- a/BOUES/Table Echange boue ligne1.xlsx
+++ b/BOUES/Table Echange boue ligne1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Affaires\sila\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Affaires\sila\BOUES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5487B24-39BD-47EA-8ACC-B0E76F694E97}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{096F88C4-E053-4572-9396-58EB8DA9AB47}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>TSX COMMUN EXISTANT</t>
   </si>
@@ -284,7 +283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,13 +426,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,7 +748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F54BE08-9F48-4EE5-A06B-DFCC98BCDB6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7553,14 +7552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD875D0-5505-4140-8B25-D88C2BD537CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7583,23 +7582,23 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="19"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="6" t="s">
         <v>31</v>
       </c>
@@ -7675,7 +7674,9 @@
         <v>80</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="K8" s="2"/>
       <c r="V8"/>
@@ -7900,23 +7901,23 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="19"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="H36" s="21" t="s">
+      <c r="H36" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="21"/>
+      <c r="I36" s="19"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="11" t="s">
         <v>31</v>
       </c>
@@ -8191,6 +8192,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="F39:G39"/>
@@ -8198,7 +8200,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="F42:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
